--- a/results/Data.xlsx
+++ b/results/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chess\Desktop\7th Sem\Molecular Simulations\Project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5047CA-8E69-41E2-8DD0-292ACEC0FA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B316C1AE-5505-4F3C-BC67-D976BE54DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D7"/>
+  <dimension ref="B3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,6 +428,39 @@
         <v>3.0410050101488498E-4</v>
       </c>
     </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1.25</v>
+      </c>
+      <c r="C8">
+        <v>1.2798927294351101E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.6960693269588601E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9">
+        <v>1.6412391973813199E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.43323778116066E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1.75</v>
+      </c>
+      <c r="C10">
+        <v>2.1005156392962101E-2</v>
+      </c>
+      <c r="D10">
+        <v>4.7324053854925496E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
